--- a/files/EncryptedMessage.xlsx
+++ b/files/EncryptedMessage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Challenges\Page\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\TreasureWeb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6975" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Enc0010" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Enc0110" sheetId="5" r:id="rId7"/>
     <sheet name="Enc1000" sheetId="8" r:id="rId8"/>
     <sheet name="Enc1001" sheetId="9" r:id="rId9"/>
+    <sheet name="Hint" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,10 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Numbers are orders</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,10 +106,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -433,6 +456,68 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J37:AG39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="27" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="37" spans="10:33" x14ac:dyDescent="0.25">
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="10:33" x14ac:dyDescent="0.25">
+      <c r="J38" s="3">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5</v>
+      </c>
+      <c r="L38" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="10:33" x14ac:dyDescent="0.25">
+      <c r="J39" s="3">
+        <v>7</v>
+      </c>
+      <c r="K39" s="3">
+        <v>8</v>
+      </c>
+      <c r="L39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AC38:AG38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -924,7 +1009,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="J1" sqref="J1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
